--- a/data/trans_camb/P19C09-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C09-Habitat-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P19C09-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C09-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -606,27 +606,27 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,12</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,41</t>
         </is>
       </c>
     </row>
@@ -644,27 +644,27 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,0; 7,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,73; 6,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,14; 3,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,61; 3,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,78; 4,07</t>
         </is>
       </c>
     </row>
@@ -682,27 +682,27 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,99%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,53%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,55%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>131,9%</t>
         </is>
       </c>
     </row>
@@ -740,7 +740,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,98; —</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,02</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,32</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,42</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,77; 0,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,66; 2,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,45; -0,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,08; -0,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,82; -0,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,09; 0,32</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,2%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,49%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-64,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-52,06%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,18%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,64; 34,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,42; 92,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,91; -18,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,18; 2,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,27; -19,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,05; 16,12</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,64; 0,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,49; 1,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,12; 1,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,94; 1,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,8; 0,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 1,31</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,97%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,91%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,77%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,11%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,7%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,71; 26,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,27; 115,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,61; 60,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,92; 68,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,95; 23,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,22; 54,71</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,59</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,15; 0,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,78; 2,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,01; 1,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,28; 0,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,01; 0,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,97; 0,54</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,04%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,5%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-52,32%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,75%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,73%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,69; 34,91</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,11; 173,02</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,69; 104,04</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,23; 12,46</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,36; 37,43</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,64; 30,58</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,49</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,9; 1,44</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,44; 2,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,92; 2,66</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,03; 2,56</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,92; 1,43</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,61; 1,63</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,85%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,92%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,85%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,38%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,47; 82,48</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,85; 114,69</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,57; 131,59</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,8; 125,85</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,89; 69,74</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,19; 78,86</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,14</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,7; -0,04</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,74; 1,19</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,23; 0,62</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,42; 0,4</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,32; -0,0</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,81; 0,5</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,45%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,71%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,23%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,16%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,88%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,94; 0,68</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,78; 53,31</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,47; 23,9</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,51; 16,39</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,49; -0,11</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,28; 19,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C09-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C09-Habitat-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>-0,94</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,19; 0,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 7,58</t>
+          <t>-2,14; 2,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 6,5</t>
+          <t>-4,54; -0,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 3,57</t>
+          <t>-4,09; 0,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 3,16</t>
+          <t>-3,23; -0,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 4,07</t>
+          <t>-2,48; 0,62</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,4%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>67,99%</t>
+          <t>-54,91%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,53%</t>
+          <t>-48,24%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>49,55%</t>
+          <t>-50,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>131,9%</t>
+          <t>-25,98%</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,92; 38,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,18; 115,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,77; -11,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,29; 9,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,92; -11,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-77,98; —</t>
+          <t>-55,8; 24,02</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,02</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,32</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>0,05</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 0,62</t>
+          <t>-2,64; 0,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 2,05</t>
+          <t>-1,49; 1,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,45; -0,94</t>
+          <t>-2,12; 1,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,08; -0,04</t>
+          <t>-1,94; 1,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,82; -0,66</t>
+          <t>-1,8; 0,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 0,32</t>
+          <t>-1,05; 1,31</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-43,2%</t>
+          <t>-39,97%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-9,49%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-64,78%</t>
+          <t>-10,91%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-52,06%</t>
+          <t>-3,77%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-55,85%</t>
+          <t>-23,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-34,18%</t>
+          <t>1,7%</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-77,64; 34,36</t>
+          <t>-73,71; 26,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-57,42; 92,9</t>
+          <t>-43,27; 115,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-86,91; -18,66</t>
+          <t>-49,61; 60,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-81,18; 2,05</t>
+          <t>-44,92; 68,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-76,27; -19,36</t>
+          <t>-49,95; 23,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-62,05; 16,12</t>
+          <t>-31,22; 54,71</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-0,59</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 0,33</t>
+          <t>-3,15; 0,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 1,87</t>
+          <t>-1,78; 2,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 1,36</t>
+          <t>-2,01; 1,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 1,73</t>
+          <t>-3,28; 0,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 0,46</t>
+          <t>-2,01; 0,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 1,31</t>
+          <t>-1,97; 0,54</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-39,97%</t>
+          <t>-44,04%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-10,91%</t>
+          <t>-2,5%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-3,77%</t>
+          <t>-52,32%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-23,11%</t>
+          <t>-22,75%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>-22,73%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-73,71; 26,47</t>
+          <t>-82,69; 34,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-43,27; 115,77</t>
+          <t>-52,11; 173,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-49,61; 60,33</t>
+          <t>-58,69; 104,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-44,92; 68,58</t>
+          <t>-84,23; 12,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-49,95; 23,04</t>
+          <t>-58,36; 37,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-31,22; 54,71</t>
+          <t>-57,64; 30,58</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>0,49</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 0,29</t>
+          <t>-1,9; 1,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 2,37</t>
+          <t>-1,44; 2,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 1,69</t>
+          <t>-0,92; 2,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 0,04</t>
+          <t>-1,03; 2,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 0,63</t>
+          <t>-0,92; 1,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 0,54</t>
+          <t>-0,61; 1,63</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-44,04%</t>
+          <t>-13,85%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-2,5%</t>
+          <t>30,92%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-52,32%</t>
+          <t>26,85%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-22,75%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-22,73%</t>
+          <t>18,38%</t>
         </is>
       </c>
     </row>
@@ -1183,39 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-82,69; 34,91</t>
+          <t>-56,47; 82,48</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-52,11; 173,02</t>
+          <t>-41,85; 114,69</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-58,69; 104,04</t>
+          <t>-28,57; 131,59</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-84,23; 12,46</t>
+          <t>-30,8; 125,85</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-58,36; 37,43</t>
+          <t>-27,89; 69,74</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-57,64; 30,58</t>
+          <t>-20,19; 78,86</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -1235,22 +1235,22 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>-0,14</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 1,44</t>
+          <t>-1,7; -0,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 2,07</t>
+          <t>-0,74; 1,19</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 2,66</t>
+          <t>-1,23; 0,62</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 2,56</t>
+          <t>-1,42; 0,4</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 1,43</t>
+          <t>-1,32; -0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 1,63</t>
+          <t>-0,81; 0,5</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-13,85%</t>
+          <t>-34,45%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>30,92%</t>
+          <t>-10,71%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>26,85%</t>
+          <t>-15,23%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>10,45%</t>
+          <t>-21,16%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>18,38%</t>
+          <t>-4,88%</t>
         </is>
       </c>
     </row>
@@ -1339,200 +1339,44 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-56,47; 82,48</t>
+          <t>-53,94; 0,68</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-41,85; 114,69</t>
+          <t>-24,78; 53,31</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-28,57; 131,59</t>
+          <t>-33,47; 23,9</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-30,8; 125,85</t>
+          <t>-38,51; 16,39</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-27,89; 69,74</t>
+          <t>-39,49; -0,11</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-20,19; 78,86</t>
+          <t>-25,28; 19,99</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-0,9</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-0,34</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-0,48</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-0,61</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-0,14</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-1,7; -0,04</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-0,74; 1,19</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-1,23; 0,62</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-1,42; 0,4</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-1,32; -0,0</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-0,81; 0,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-34,45%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>8,82%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-10,71%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-15,23%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-21,16%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-4,88%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-53,94; 0,68</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-24,78; 53,31</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-33,47; 23,9</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-38,51; 16,39</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-39,49; -0,11</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-25,28; 19,99</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
@@ -1541,7 +1385,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P19C09-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C09-Habitat-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 0,52</t>
+          <t>-3,09; 0,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 2,38</t>
+          <t>-1,88; 2,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,54; -0,38</t>
+          <t>-4,43; -0,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 0,14</t>
+          <t>-4,22; 0,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,23; -0,48</t>
+          <t>-3,29; -0,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 0,62</t>
+          <t>-2,52; 0,6</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-77,92; 38,23</t>
+          <t>-75,5; 34,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-50,18; 115,59</t>
+          <t>-47,33; 126,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-79,77; -11,03</t>
+          <t>-80,34; -6,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-74,29; 9,52</t>
+          <t>-77,79; 5,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-70,92; -11,51</t>
+          <t>-71,63; -12,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-55,8; 24,02</t>
+          <t>-56,27; 22,48</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 0,33</t>
+          <t>-2,89; 0,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 1,87</t>
+          <t>-1,55; 1,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 1,36</t>
+          <t>-2,14; 1,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 1,73</t>
+          <t>-1,85; 1,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 0,46</t>
+          <t>-1,73; 0,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 1,31</t>
+          <t>-1,24; 1,28</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-73,71; 26,47</t>
+          <t>-77,63; 26,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-43,27; 115,77</t>
+          <t>-46,82; 111,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-49,61; 60,33</t>
+          <t>-50,95; 56,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-44,92; 68,58</t>
+          <t>-44,71; 81,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-49,95; 23,04</t>
+          <t>-49,51; 21,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-31,22; 54,71</t>
+          <t>-32,78; 57,28</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 0,29</t>
+          <t>-3,15; 0,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 2,37</t>
+          <t>-1,81; 2,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 1,69</t>
+          <t>-1,83; 1,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 0,04</t>
+          <t>-2,97; 0,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 0,63</t>
+          <t>-1,8; 0,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 0,54</t>
+          <t>-1,74; 0,68</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-82,69; 34,91</t>
+          <t>-82,28; 50,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-52,11; 173,02</t>
+          <t>-51,12; 162,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-58,69; 104,04</t>
+          <t>-53,43; 110,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-84,23; 12,46</t>
+          <t>-83,45; 11,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-58,36; 37,43</t>
+          <t>-56,16; 42,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-57,64; 30,58</t>
+          <t>-55,55; 40,29</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 1,44</t>
+          <t>-1,99; 1,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 2,07</t>
+          <t>-1,47; 2,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 2,66</t>
+          <t>-0,9; 2,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 2,56</t>
+          <t>-1,16; 2,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 1,43</t>
+          <t>-0,99; 1,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 1,63</t>
+          <t>-0,76; 1,67</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-56,47; 82,48</t>
+          <t>-57,61; 87,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-41,85; 114,69</t>
+          <t>-43,92; 110,93</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-28,57; 131,59</t>
+          <t>-26,03; 139,98</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-30,8; 125,85</t>
+          <t>-32,6; 132,63</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-27,89; 69,74</t>
+          <t>-29,84; 77,04</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-20,19; 78,86</t>
+          <t>-23,29; 78,63</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,7; -0,04</t>
+          <t>-1,8; -0,13</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 1,19</t>
+          <t>-0,74; 1,15</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 0,62</t>
+          <t>-1,27; 0,59</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 0,4</t>
+          <t>-1,38; 0,38</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,32; -0,0</t>
+          <t>-1,23; -0,04</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 0,5</t>
+          <t>-0,83; 0,46</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-53,94; 0,68</t>
+          <t>-57,34; -4,59</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-24,78; 53,31</t>
+          <t>-24,05; 51,5</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-33,47; 23,9</t>
+          <t>-35,45; 22,96</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-38,51; 16,39</t>
+          <t>-38,09; 14,71</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-39,49; -0,11</t>
+          <t>-37,9; -0,88</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-25,28; 19,99</t>
+          <t>-24,51; 17,95</t>
         </is>
       </c>
     </row>
